--- a/out/Devika/BOH uge 14.xlsx
+++ b/out/Devika/BOH uge 14.xlsx
@@ -379,7 +379,7 @@
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% NrHeader,</t>
@@ -400,13 +400,13 @@
     <t>3% filler,19% containsProductNr,38% containsAmount,38% QuantityHeader,</t>
   </si>
   <si>
+    <t>2% filler,27% containsProduct,13% containsProductNr,27% containsAmount,27% QuantityHeader,</t>
+  </si>
+  <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">PRODUKT, VARENR, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
@@ -517,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -623,6 +623,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF066D90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF093666"/>
       </patternFill>
     </fill>
@@ -640,7 +645,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
       </patternFill>
     </fill>
     <fill>
@@ -794,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,11 +1170,11 @@
     <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="12" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1165,14 +1185,15 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1181,13 +1202,13 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1214,41 +1235,57 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2507,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87964417-42A8-4A52-B6D3-BFE2C67C93E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7F29A-0C8F-4B3D-8A84-2649195F54ED}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -2560,7 +2597,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="163">
         <v>45377</v>
       </c>
       <c r="C3" s="86"/>
@@ -2578,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="156" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="83"/>
@@ -2611,7 +2648,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="163">
+      <c r="B6" s="164">
         <v>38670440</v>
       </c>
       <c r="C6" s="86"/>
@@ -2697,7 +2734,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="K11" s="147" t="s">
+      <c r="K11" s="146" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2726,6 +2763,9 @@
       <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="K12" s="148" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="127" t="s">
@@ -2737,7 +2777,7 @@
       <c r="C13" s="130">
         <v>28</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="159">
         <v>10</v>
       </c>
       <c r="E13" s="131">
@@ -2785,7 +2825,7 @@
       <c r="C15" s="130">
         <v>26</v>
       </c>
-      <c r="D15" s="158">
+      <c r="D15" s="159">
         <v>2</v>
       </c>
       <c r="E15" s="131">
@@ -2798,7 +2838,7 @@
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="156">
+      <c r="J15" s="157">
         <f>E15+E19+E25+E13</f>
         <v>834.5</v>
       </c>
@@ -2824,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="157">
+      <c r="J16" s="158">
         <f>E21+E22+E28</f>
         <v>126</v>
       </c>
@@ -2850,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="J17" s="156">
+      <c r="J17" s="157">
         <f>SUM(J15:J16)</f>
         <v>960.5</v>
       </c>
@@ -2887,7 +2927,7 @@
       <c r="C19" s="130">
         <v>4</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="159">
         <v>50</v>
       </c>
       <c r="E19" s="131">
@@ -2935,7 +2975,7 @@
       <c r="C21" s="130">
         <v>7</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="159">
         <v>5</v>
       </c>
       <c r="E21" s="131">
@@ -2959,7 +2999,7 @@
       <c r="C22" s="130">
         <v>7</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="159">
         <v>5</v>
       </c>
       <c r="E22" s="131">
@@ -2974,7 +3014,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="136" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="138">
@@ -3018,19 +3058,19 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="140" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="138">
         <v>100</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="141">
         <v>5.5</v>
       </c>
-      <c r="D25" s="158">
+      <c r="D25" s="159">
         <v>55</v>
       </c>
-      <c r="E25" s="159">
+      <c r="E25" s="160">
         <f t="shared" si="0"/>
         <v>302.5</v>
       </c>
@@ -3042,13 +3082,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="138">
         <v>100</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="141">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -3064,13 +3104,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="138">
         <v>100</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="141">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -3086,7 +3126,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="140" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="142">
@@ -3095,7 +3135,7 @@
       <c r="C28" s="143">
         <v>7</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="159">
         <v>8</v>
       </c>
       <c r="E28" s="131">
@@ -3110,7 +3150,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="144">
@@ -3176,7 +3216,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="144">
@@ -3198,7 +3238,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="144">
@@ -3220,13 +3260,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="142">
         <v>1200</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="150">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -3242,13 +3282,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="142">
         <v>100</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="150">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -3264,13 +3304,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="142">
         <v>30</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="150">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -3286,7 +3326,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="151" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="13"/>
@@ -3304,7 +3344,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="151" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="13"/>
@@ -3334,7 +3374,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="152" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="62"/>
@@ -3352,7 +3392,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="159">
+      <c r="E41" s="160">
         <f>SUM(E13:E35)</f>
         <v>960.5</v>
       </c>
@@ -3371,7 +3411,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="161">
+      <c r="E42" s="162">
         <f>E41*0.25</f>
         <v>240.125</v>
       </c>
@@ -3379,7 +3419,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1580</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="154">
         <f>SUM(G13:G38)</f>
         <v>24800</v>
       </c>
@@ -3392,7 +3432,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="159">
+      <c r="E43" s="160">
         <f>E41+E42</f>
         <v>1200.625</v>
       </c>
@@ -3401,7 +3441,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="155" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="64"/>
@@ -3413,7 +3453,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="155" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="64"/>
@@ -3478,7 +3518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14CB5A-DF78-4F9E-8E49-FF29DBE9D1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D35BB3-2422-4687-A71D-6194FABDB214}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3604,30 +3644,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>57980099919966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -3652,25 +3680,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="170" t="s">
+      <c r="A12" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="184" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -3678,44 +3706,44 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="173">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="182"/>
+      <c r="G13" s="185">
         <f>SUM(B13)*D13</f>
         <v>0</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="173">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="182"/>
+      <c r="G14" s="185">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -3724,132 +3752,132 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="173">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="182"/>
+      <c r="G15" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="173">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="182"/>
+      <c r="G16" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="173">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="182"/>
+      <c r="G17" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="173">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="182"/>
+      <c r="G18" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="173">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="183"/>
+      <c r="G19" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="173">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="183"/>
+      <c r="G20" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3858,389 +3886,389 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="174">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="183">
         <f>SUM(B21)*D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="174">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="183">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="175">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="175">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="175">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="183"/>
+      <c r="G25" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="175">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="183"/>
+      <c r="G26" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="175">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="183"/>
+      <c r="G27" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="176">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="183">
         <f>SUM(B28)*D28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="177">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="183">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="177">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="177">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="177">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="177">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="176">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="176">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="176">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -4410,7 +4438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BA6329-7233-4657-B324-ECE99432073C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5381E99E-4798-4C07-AD67-8B4FEF0F17EE}">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4540,65 +4568,21 @@
       </c>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="175" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" s="174" t="s">
-        <v>86</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>98009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+      <c r="J9" s="104">
+        <f>E21+E22+E24+E28</f>
+        <v>235</v>
       </c>
     </row>
     <row r="10" ht="15.75">
@@ -4628,25 +4612,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="170" t="s">
+      <c r="A12" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="184" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -4654,46 +4638,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="173">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="179">
         <v>4</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>112</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="182"/>
+      <c r="G13" s="185">
         <f>SUM(B13)*D13</f>
         <v>5600</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="173">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="182"/>
+      <c r="G14" s="185">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -4702,116 +4686,116 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="173">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="182"/>
+      <c r="G15" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="173">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="179">
         <v>2</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="182"/>
+      <c r="G16" s="185">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="173">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="179">
         <v>2</v>
       </c>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>50</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="182"/>
+      <c r="G17" s="185">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="173">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="182"/>
+      <c r="G18" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="173">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="179">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="183"/>
+      <c r="G19" s="185">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
@@ -4827,22 +4811,22 @@
       <c r="S19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="173">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="183"/>
+      <c r="G20" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4860,27 +4844,27 @@
       <c r="S20" s="45"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="174">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="179">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="183">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="80"/>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -4893,27 +4877,27 @@
       <c r="S21" s="45"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="174">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="179">
         <v>7</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="183">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>490</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="80"/>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
@@ -4926,25 +4910,25 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="175">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="80"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
@@ -4957,27 +4941,27 @@
       <c r="S23" s="45"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="175">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="179">
         <v>9</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="183">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="80"/>
       <c r="K24" s="46"/>
       <c r="L24" s="51"/>
@@ -4990,24 +4974,24 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="175">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="179">
         <v>75</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>412.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="183"/>
+      <c r="G25" s="185">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
@@ -5023,22 +5007,22 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="175">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="183"/>
+      <c r="G26" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5054,22 +5038,22 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="175">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="183"/>
+      <c r="G27" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5085,27 +5069,27 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="176">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="179">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="183">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="80"/>
       <c r="K28" s="52"/>
       <c r="L28" s="51"/>
@@ -5118,25 +5102,25 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="177">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="183">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="81"/>
       <c r="K29" s="52"/>
       <c r="L29" s="51"/>
@@ -5149,25 +5133,25 @@
       <c r="S29" s="45"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="177">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="8"/>
       <c r="K30" s="52"/>
       <c r="L30" s="51"/>
@@ -5180,25 +5164,25 @@
       <c r="S30" s="45"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="177">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="16"/>
       <c r="K31" s="52"/>
       <c r="L31" s="51"/>
@@ -5211,25 +5195,25 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="177">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="8"/>
       <c r="K32" s="46"/>
       <c r="L32" s="51"/>
@@ -5242,25 +5226,25 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="177">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="8"/>
       <c r="K33" s="52"/>
       <c r="L33" s="51"/>
@@ -5273,25 +5257,25 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="176">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="19"/>
       <c r="K34" s="52"/>
       <c r="L34" s="51"/>
@@ -5304,25 +5288,25 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="176">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="19"/>
       <c r="K35" s="52"/>
       <c r="L35" s="51"/>
@@ -5335,45 +5319,45 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="176">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="19"/>
       <c r="K36" s="52"/>
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="19"/>
       <c r="K37" s="52"/>
       <c r="L37" s="51"/>
@@ -5386,21 +5370,21 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="19"/>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -5667,7 +5651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FB58D1-66E2-4B0E-9821-CC0FE5038D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF46201-09A0-4167-84B3-07035B7C409C}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5792,36 +5776,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="174" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -5846,25 +5812,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="170" t="s">
+      <c r="A12" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="184" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -5872,46 +5838,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="173">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="179">
         <v>5</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>140</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="182"/>
+      <c r="G13" s="185">
         <f>SUM(B13)*D13</f>
         <v>7000</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="173">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="182"/>
+      <c r="G14" s="185">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -5924,24 +5890,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="173">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="179">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="182"/>
+      <c r="G15" s="185">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -5952,22 +5918,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="173">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="182"/>
+      <c r="G16" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5978,92 +5944,92 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="173">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="182"/>
+      <c r="G17" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="173">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="182"/>
+      <c r="G18" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="173">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="179">
         <v>53</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="183"/>
+      <c r="G19" s="185">
         <f t="shared" si="1"/>
         <v>3710</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="173">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="179">
         <v>2</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="183"/>
+      <c r="G20" s="185">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
@@ -6072,397 +6038,397 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="174">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="179">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="183">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="174">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="179">
         <v>8</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="183">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>560</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="175">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="175">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="175">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="179">
         <v>70</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="183"/>
+      <c r="G25" s="185">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="175">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="183"/>
+      <c r="G26" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="175">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="183"/>
+      <c r="G27" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="176">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="179">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="183">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="177">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="183">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="177">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="177">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="177">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="177">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="176">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="176">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="176">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="171"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -6619,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE4654-00EE-4FDC-9B1C-B1DAB69317DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858245E9-A34C-435E-B760-061E0F665E0A}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6744,36 +6710,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="174" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -6798,25 +6746,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="170" t="s">
+      <c r="A12" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="184" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -6824,46 +6772,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="173">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="179">
         <v>6</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>168</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="182"/>
+      <c r="G13" s="185">
         <f>SUM(B13)*D13</f>
         <v>8400</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="173">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="182"/>
+      <c r="G14" s="185">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -6872,22 +6820,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="173">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="182"/>
+      <c r="G15" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6898,24 +6846,24 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="173">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="179">
         <v>2</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="182"/>
+      <c r="G16" s="185">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
@@ -6926,22 +6874,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="173">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="182"/>
+      <c r="G17" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6952,68 +6900,68 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="173">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="182"/>
+      <c r="G18" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="173">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="179">
         <v>50</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="183"/>
+      <c r="G19" s="185">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="173">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="183"/>
+      <c r="G20" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7022,401 +6970,401 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="174">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="179">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="183">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="174">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="179">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="183">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="175">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="175">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="175">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="179">
         <v>70</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="183"/>
+      <c r="G25" s="185">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="175">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="183"/>
+      <c r="G26" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="175">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="183"/>
+      <c r="G27" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="176">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="179">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="183">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="177">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="183">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="177">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="177">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="177">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="177">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="176">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="176">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="176">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -7577,7 +7525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB54010-3BD4-4AE9-92CF-9933AF3F86ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A6805E-6C82-4FD7-A7A7-EEBA347D729D}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -7703,36 +7651,18 @@
       <c r="H8" s="94"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="174" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="95">
+        <v>5798009991966</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -7757,25 +7687,25 @@
       <c r="H11" s="90"/>
     </row>
     <row r="12" ht="26.25">
-      <c r="A12" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="170" t="s">
+      <c r="A12" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="172" t="s">
+      <c r="E12" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="184" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -7783,46 +7713,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="173">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="179">
         <v>10</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>280</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="182"/>
+      <c r="G13" s="185">
         <f>SUM(B13)*D13</f>
         <v>14000</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="173">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="182"/>
+      <c r="G14" s="185">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -7831,24 +7761,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="173">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="179">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="182"/>
+      <c r="G15" s="185">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -7859,22 +7789,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="173">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="182"/>
+      <c r="G16" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7885,22 +7815,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="173">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="182"/>
+      <c r="G17" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7911,68 +7841,68 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="173">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="182"/>
+      <c r="G18" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="173">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="179">
         <v>50</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="183"/>
+      <c r="G19" s="185">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="173">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="183"/>
+      <c r="G20" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7981,399 +7911,399 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="174">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="179">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="183">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="185"/>
       <c r="H21" s="80"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="174">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="179">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="183">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="185"/>
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="175">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="185"/>
       <c r="H23" s="80"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="175">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="175">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="179">
         <v>55</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>302.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="183"/>
+      <c r="G25" s="185">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="175">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="183"/>
+      <c r="G26" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="175">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="183"/>
+      <c r="G27" s="185">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="176">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="179">
         <v>8</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="183">
         <f>SUM(B28)*D28</f>
         <v>880</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="177">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="183">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="177">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="177">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="185"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="177">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="185"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="177">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="185"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="176">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="176">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="185"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="176">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="180"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="185"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="185"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="185"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -12558,7 +12488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC81D18A-BCA9-4A8A-977D-AD5A092513DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC8B0D-985E-479F-9BFE-A24E6775F2B7}">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12748,7 +12678,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="146" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12777,6 +12707,9 @@
       <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="I12" s="148" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="127" t="s">
@@ -13003,7 +12936,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="136" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="138">
@@ -13047,13 +12980,13 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="140" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="138">
         <v>100</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="141">
         <v>5.5</v>
       </c>
       <c r="D25" s="7"/>
@@ -13069,13 +13002,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="138">
         <v>100</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="141">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -13091,13 +13024,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="138">
         <v>100</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="141">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -13113,7 +13046,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="140" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="142">
@@ -13135,7 +13068,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="144">
@@ -13201,7 +13134,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="144">
@@ -13223,7 +13156,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="144">
@@ -13245,13 +13178,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="142">
         <v>1200</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="150">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -13267,13 +13200,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="142">
         <v>100</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="150">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -13289,13 +13222,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="142">
         <v>30</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="150">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -13311,7 +13244,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="13"/>
@@ -13357,7 +13290,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="152" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="62"/>
@@ -13394,7 +13327,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="152">
+      <c r="E42" s="153">
         <f>E41*0.25</f>
         <v>0</v>
       </c>
@@ -13402,7 +13335,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="154">
         <f>SUM(G13:G38)</f>
         <v>0</v>
       </c>
@@ -13424,7 +13357,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="155" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="64"/>
@@ -13436,7 +13369,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="155" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="64"/>
@@ -13511,7 +13444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42ADA7-A6AB-4E24-A2CF-010C4D2FA5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA81C7D-4B3F-4CC7-ADDB-FCFCAB1F9C42}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -13583,7 +13516,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="83"/>
@@ -13656,7 +13589,7 @@
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
       <c r="H8" s="94"/>
-      <c r="J8" s="156">
+      <c r="J8" s="157">
         <f>E13+E16+E17+E19+E25</f>
         <v>832.5</v>
       </c>
@@ -13677,7 +13610,7 @@
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="97"/>
-      <c r="J9" s="157">
+      <c r="J9" s="158">
         <f>E21+E22+E24+E28</f>
         <v>235</v>
       </c>
@@ -13696,7 +13629,7 @@
       <c r="F10" s="86"/>
       <c r="G10" s="86"/>
       <c r="H10" s="87"/>
-      <c r="J10" s="156">
+      <c r="J10" s="157">
         <f>SUM(J8:J9)</f>
         <v>1067.5</v>
       </c>
@@ -13713,7 +13646,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="U11" s="147" t="s">
+      <c r="U11" s="146" t="s">
         <v>84</v>
       </c>
     </row>
@@ -13742,6 +13675,9 @@
       <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="U12" s="148" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="127" t="s">
@@ -13753,7 +13689,7 @@
       <c r="C13" s="130">
         <v>28</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="159">
         <v>4</v>
       </c>
       <c r="E13" s="131">
@@ -13823,7 +13759,7 @@
       <c r="C16" s="130">
         <v>25</v>
       </c>
-      <c r="D16" s="158">
+      <c r="D16" s="159">
         <v>2</v>
       </c>
       <c r="E16" s="131">
@@ -13847,7 +13783,7 @@
       <c r="C17" s="130">
         <v>25</v>
       </c>
-      <c r="D17" s="158">
+      <c r="D17" s="159">
         <v>2</v>
       </c>
       <c r="E17" s="131">
@@ -13893,7 +13829,7 @@
       <c r="C19" s="130">
         <v>4</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="159">
         <v>52</v>
       </c>
       <c r="E19" s="131">
@@ -13959,7 +13895,7 @@
       <c r="C21" s="130">
         <v>7</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="159">
         <v>5</v>
       </c>
       <c r="E21" s="131">
@@ -13992,7 +13928,7 @@
       <c r="C22" s="130">
         <v>7</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="159">
         <v>7</v>
       </c>
       <c r="E22" s="131">
@@ -14016,7 +13952,7 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="136" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="138">
@@ -14056,7 +13992,7 @@
       <c r="C24" s="139">
         <v>9</v>
       </c>
-      <c r="D24" s="158">
+      <c r="D24" s="159">
         <v>9</v>
       </c>
       <c r="E24" s="131">
@@ -14080,19 +14016,19 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="140" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="138">
         <v>100</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="141">
         <v>5.5</v>
       </c>
-      <c r="D25" s="158">
+      <c r="D25" s="159">
         <v>75</v>
       </c>
-      <c r="E25" s="159">
+      <c r="E25" s="160">
         <f t="shared" si="0"/>
         <v>412.5</v>
       </c>
@@ -14113,13 +14049,13 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="138">
         <v>100</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="141">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -14144,13 +14080,13 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="138">
         <v>100</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="141">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -14175,7 +14111,7 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="140" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="142">
@@ -14184,7 +14120,7 @@
       <c r="C28" s="143">
         <v>7</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="159">
         <v>10</v>
       </c>
       <c r="E28" s="131">
@@ -14208,7 +14144,7 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="144">
@@ -14301,7 +14237,7 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="144">
@@ -14332,7 +14268,7 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="144">
@@ -14363,13 +14299,13 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="142">
         <v>1200</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="150">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -14394,13 +14330,13 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="142">
         <v>100</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="150">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -14425,13 +14361,13 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="142">
         <v>30</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="150">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -14449,7 +14385,7 @@
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="13"/>
@@ -14476,7 +14412,7 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="161" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="13"/>
@@ -14524,7 +14460,7 @@
       <c r="S39" s="45"/>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="152" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="62"/>
@@ -14551,7 +14487,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="159">
+      <c r="E41" s="160">
         <f>SUM(E13:E35)</f>
         <v>1067.5</v>
       </c>
@@ -14579,7 +14515,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="161">
+      <c r="E42" s="162">
         <f>E41*0.25</f>
         <v>266.875</v>
       </c>
@@ -14587,7 +14523,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>2660</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="154">
         <f>SUM(G13:G38)</f>
         <v>19220</v>
       </c>
@@ -14609,7 +14545,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="159">
+      <c r="E43" s="160">
         <f>E41+E42</f>
         <v>1334.375</v>
       </c>
@@ -14627,7 +14563,7 @@
       <c r="S43" s="45"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="155" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="64"/>
@@ -14648,7 +14584,7 @@
       <c r="S44" s="45"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="155" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="64"/>
@@ -14757,7 +14693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50107506-CDC1-4D09-B6B3-A6292772ED5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782C84AB-1E08-4CF8-AEA7-3803EB3AE2DD}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -14828,7 +14764,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="83"/>
@@ -14946,7 +14882,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="K11" s="147" t="s">
+      <c r="K11" s="146" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14975,6 +14911,9 @@
       <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="K12" s="148" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="127" t="s">
@@ -14986,7 +14925,7 @@
       <c r="C13" s="130">
         <v>28</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="159">
         <v>5</v>
       </c>
       <c r="E13" s="131">
@@ -15023,7 +14962,7 @@
       <c r="H14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="157">
+      <c r="J14" s="158">
         <f>E13+E15+E19+E20+E25</f>
         <v>800</v>
       </c>
@@ -15038,7 +14977,7 @@
       <c r="C15" s="130">
         <v>26</v>
       </c>
-      <c r="D15" s="158">
+      <c r="D15" s="159">
         <v>2</v>
       </c>
       <c r="E15" s="131">
@@ -15051,7 +14990,7 @@
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="157">
+      <c r="J15" s="158">
         <f>E21+E22+E28</f>
         <v>161</v>
       </c>
@@ -15077,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="157">
+      <c r="J16" s="158">
         <f>SUM(J14:J15)</f>
         <v>961</v>
       </c>
@@ -15136,7 +15075,7 @@
       <c r="C19" s="130">
         <v>4</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="159">
         <v>53</v>
       </c>
       <c r="E19" s="131">
@@ -15160,7 +15099,7 @@
       <c r="C20" s="133">
         <v>5.5</v>
       </c>
-      <c r="D20" s="158">
+      <c r="D20" s="159">
         <v>2</v>
       </c>
       <c r="E20" s="131">
@@ -15186,7 +15125,7 @@
       <c r="C21" s="130">
         <v>7</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="159">
         <v>5</v>
       </c>
       <c r="E21" s="131">
@@ -15210,7 +15149,7 @@
       <c r="C22" s="130">
         <v>7</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="159">
         <v>8</v>
       </c>
       <c r="E22" s="131">
@@ -15225,7 +15164,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="136" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="138">
@@ -15269,16 +15208,16 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="140" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="138">
         <v>100</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="141">
         <v>5.5</v>
       </c>
-      <c r="D25" s="158">
+      <c r="D25" s="159">
         <v>70</v>
       </c>
       <c r="E25" s="131">
@@ -15293,13 +15232,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="138">
         <v>100</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="141">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -15315,13 +15254,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="138">
         <v>100</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="141">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -15337,7 +15276,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="140" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="142">
@@ -15346,7 +15285,7 @@
       <c r="C28" s="143">
         <v>7</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="159">
         <v>10</v>
       </c>
       <c r="E28" s="131">
@@ -15361,7 +15300,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="144">
@@ -15427,7 +15366,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="144">
@@ -15449,7 +15388,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="144">
@@ -15471,13 +15410,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="142">
         <v>1200</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="150">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -15493,13 +15432,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="142">
         <v>100</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="150">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -15515,13 +15454,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="142">
         <v>30</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="150">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -15537,7 +15476,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="151" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="13"/>
@@ -15583,7 +15522,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="152" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="62"/>
@@ -15625,7 +15564,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>2010</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="154">
         <f>SUM(G13:G38)</f>
         <v>19650</v>
       </c>
@@ -15647,7 +15586,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="155" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="64"/>
@@ -15659,7 +15598,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="155" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="64"/>
@@ -15724,7 +15663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B490A5-72C0-46FD-91E4-95931DAD3637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9B5FE-52A2-4AE1-9B46-F3692DDBA104}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -15795,7 +15734,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="83"/>
@@ -15913,7 +15852,7 @@
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="90"/>
-      <c r="K11" s="147" t="s">
+      <c r="K11" s="146" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15942,6 +15881,9 @@
       <c r="H12" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="K12" s="148" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="127" t="s">
@@ -15953,7 +15895,7 @@
       <c r="C13" s="130">
         <v>28</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="159">
         <v>6</v>
       </c>
       <c r="E13" s="131">
@@ -16012,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="157">
+      <c r="J15" s="158">
         <f>E13+E16+E19+E25</f>
         <v>803</v>
       </c>
@@ -16027,7 +15969,7 @@
       <c r="C16" s="130">
         <v>25</v>
       </c>
-      <c r="D16" s="158">
+      <c r="D16" s="159">
         <v>2</v>
       </c>
       <c r="E16" s="131">
@@ -16040,7 +15982,7 @@
         <v>1280</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="157">
+      <c r="J16" s="158">
         <f>E21+E22+E28</f>
         <v>140</v>
       </c>
@@ -16066,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="J17" s="157">
+      <c r="J17" s="158">
         <f>SUM(J15:J16)</f>
         <v>943</v>
       </c>
@@ -16103,7 +16045,7 @@
       <c r="C19" s="130">
         <v>4</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="159">
         <v>50</v>
       </c>
       <c r="E19" s="131">
@@ -16151,7 +16093,7 @@
       <c r="C21" s="130">
         <v>7</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="159">
         <v>5</v>
       </c>
       <c r="E21" s="131">
@@ -16175,7 +16117,7 @@
       <c r="C22" s="130">
         <v>7</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="159">
         <v>5</v>
       </c>
       <c r="E22" s="131">
@@ -16190,7 +16132,7 @@
       <c r="H22" s="80"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="136" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="138">
@@ -16234,16 +16176,16 @@
       <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="140" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="138">
         <v>100</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="141">
         <v>5.5</v>
       </c>
-      <c r="D25" s="158">
+      <c r="D25" s="159">
         <v>70</v>
       </c>
       <c r="E25" s="131">
@@ -16258,13 +16200,13 @@
       <c r="H25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="138">
         <v>100</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="141">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -16280,13 +16222,13 @@
       <c r="H26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="140" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="138">
         <v>100</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="141">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -16302,7 +16244,7 @@
       <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="140" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="142">
@@ -16311,7 +16253,7 @@
       <c r="C28" s="143">
         <v>7</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="159">
         <v>10</v>
       </c>
       <c r="E28" s="131">
@@ -16326,7 +16268,7 @@
       <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="144">
@@ -16394,7 +16336,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="147" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="144">
@@ -16416,7 +16358,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="144">
@@ -16438,13 +16380,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="142">
         <v>1200</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="150">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -16460,13 +16402,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="142">
         <v>100</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="150">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -16482,13 +16424,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="142">
         <v>30</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="150">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -16504,7 +16446,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="151" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="13"/>
@@ -16522,7 +16464,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="151" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="13"/>
@@ -16552,7 +16494,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="152" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="62"/>
@@ -16589,7 +16531,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="78"/>
-      <c r="E42" s="161">
+      <c r="E42" s="162">
         <f>E41*0.25</f>
         <v>235.75</v>
       </c>
@@ -16597,7 +16539,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="154">
         <f>SUM(G13:G38)</f>
         <v>20180</v>
       </c>
@@ -16610,7 +16552,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="78"/>
-      <c r="E43" s="159">
+      <c r="E43" s="160">
         <f>E41+E42</f>
         <v>1178.75</v>
       </c>
@@ -16619,7 +16561,7 @@
       <c r="H43" s="75"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="155" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="64"/>
@@ -16631,7 +16573,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="155" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="64"/>
